--- a/data/coded_segments/md_6_1.xlsx
+++ b/data/coded_segments/md_6_1.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5E0F2D-6700-094F-9C1F-BE30D43AA13B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="203">
   <si>
     <t>Color</t>
   </si>
@@ -89,7 +85,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>8/28/18 14:31:11</t>
+    <t>8/28/18 14:31:00</t>
   </si>
   <si>
     <t>3518</t>
@@ -108,9 +104,6 @@
 emerging nosocomial superbug</t>
   </si>
   <si>
-    <t>8/28/18 14:31:33</t>
-  </si>
-  <si>
     <t>7189</t>
   </si>
   <si>
@@ -126,9 +119,6 @@
     <t>January</t>
   </si>
   <si>
-    <t>8/28/18 14:31:45</t>
-  </si>
-  <si>
     <t>Event year</t>
   </si>
   <si>
@@ -141,9 +131,6 @@
     <t>2005</t>
   </si>
   <si>
-    <t>8/28/18 14:31:51</t>
-  </si>
-  <si>
     <t>Patient:Age</t>
   </si>
   <si>
@@ -156,9 +143,6 @@
     <t>42</t>
   </si>
   <si>
-    <t>8/28/18 14:31:55</t>
-  </si>
-  <si>
     <t>Patient:Sex</t>
   </si>
   <si>
@@ -171,9 +155,6 @@
     <t>man</t>
   </si>
   <si>
-    <t>8/28/18 14:31:58</t>
-  </si>
-  <si>
     <t>Location:Hospital name</t>
   </si>
   <si>
@@ -186,7 +167,7 @@
     <t>University Hospital of Larissa</t>
   </si>
   <si>
-    <t>8/28/18 14:32:04</t>
+    <t>8/28/18 14:32:00</t>
   </si>
   <si>
     <t>Location:Country</t>
@@ -201,9 +182,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>8/28/18 14:32:07</t>
-  </si>
-  <si>
     <t>Patient:Symptoms/Disease</t>
   </si>
   <si>
@@ -216,9 +194,6 @@
     <t>fever</t>
   </si>
   <si>
-    <t>8/28/18 14:32:13</t>
-  </si>
-  <si>
     <t>1: 1736</t>
   </si>
   <si>
@@ -228,9 +203,6 @@
     <t>malaise</t>
   </si>
   <si>
-    <t>8/28/18 14:32:15</t>
-  </si>
-  <si>
     <t>1: 1750</t>
   </si>
   <si>
@@ -240,9 +212,6 @@
     <t>productive cough</t>
   </si>
   <si>
-    <t>8/28/18 14:32:20</t>
-  </si>
-  <si>
     <t>Bacteria:Binomial (genus species)</t>
   </si>
   <si>
@@ -270,7 +239,7 @@
     <t>resistant</t>
   </si>
   <si>
-    <t>8/28/18 14:42:47</t>
+    <t>8/28/18 14:42:00</t>
   </si>
   <si>
     <t>13592</t>
@@ -297,7 +266,7 @@
     <t>boy</t>
   </si>
   <si>
-    <t>8/28/18 15:53:52</t>
+    <t>8/28/18 15:53:00</t>
   </si>
   <si>
     <t>Location:State/Province/District</t>
@@ -312,9 +281,6 @@
     <t>Western Province</t>
   </si>
   <si>
-    <t>8/28/18 15:53:58</t>
-  </si>
-  <si>
     <t>1: 292</t>
   </si>
   <si>
@@ -324,7 +290,7 @@
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>8/28/18 15:54:01</t>
+    <t>8/28/18 15:54:00</t>
   </si>
   <si>
     <t>Patient:Comorbidities</t>
@@ -339,7 +305,7 @@
     <t>leprosy</t>
   </si>
   <si>
-    <t>8/28/18 16:05:25</t>
+    <t>8/28/18 16:05:00</t>
   </si>
   <si>
     <t>Drug Resisted</t>
@@ -354,7 +320,7 @@
     <t>rifampicin</t>
   </si>
   <si>
-    <t>8/28/18 16:06:03</t>
+    <t>8/28/18 16:06:00</t>
   </si>
   <si>
     <t>1: 1764</t>
@@ -366,9 +332,6 @@
     <t>isoniazid</t>
   </si>
   <si>
-    <t>8/28/18 16:06:05</t>
-  </si>
-  <si>
     <t>1: 1775</t>
   </si>
   <si>
@@ -378,9 +341,6 @@
     <t>streptomycin</t>
   </si>
   <si>
-    <t>8/28/18 16:06:08</t>
-  </si>
-  <si>
     <t>1: 1792</t>
   </si>
   <si>
@@ -390,9 +350,6 @@
     <t>ethionamide</t>
   </si>
   <si>
-    <t>8/28/18 16:06:11</t>
-  </si>
-  <si>
     <t>1: 1711</t>
   </si>
   <si>
@@ -400,9 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mycobacterium tuberculosis </t>
-  </si>
-  <si>
-    <t>8/28/18 16:06:18</t>
   </si>
   <si>
     <t>Patient:Outcome</t>
@@ -418,7 +372,7 @@
 been seen</t>
   </si>
   <si>
-    <t>8/28/18 16:07:11</t>
+    <t>8/28/18 16:07:00</t>
   </si>
   <si>
     <t>13743</t>
@@ -436,18 +390,12 @@
     <t>First Report of Staphylococcal Clinical Isolates</t>
   </si>
   <si>
-    <t>8/28/18 16:07:38</t>
-  </si>
-  <si>
     <t>1: 417</t>
   </si>
   <si>
     <t>t</t>
   </si>
   <si>
-    <t>8/28/18 16:07:49</t>
-  </si>
-  <si>
     <t>14397</t>
   </si>
   <si>
@@ -460,7 +408,7 @@
     <t>novel</t>
   </si>
   <si>
-    <t>8/28/18 16:08:37</t>
+    <t>8/28/18 16:08:00</t>
   </si>
   <si>
     <t>1: 923</t>
@@ -472,9 +420,6 @@
     <t>Outbreak</t>
   </si>
   <si>
-    <t>8/28/18 16:08:40</t>
-  </si>
-  <si>
     <t>15494</t>
   </si>
   <si>
@@ -490,9 +435,6 @@
     <t>an integrative review</t>
   </si>
   <si>
-    <t>8/28/18 16:08:53</t>
-  </si>
-  <si>
     <t>17707</t>
   </si>
   <si>
@@ -502,7 +444,7 @@
     <t>variant</t>
   </si>
   <si>
-    <t>8/28/18 16:09:14</t>
+    <t>8/28/18 16:09:00</t>
   </si>
   <si>
     <t>18963</t>
@@ -517,18 +459,12 @@
     <t>35</t>
   </si>
   <si>
-    <t>8/28/18 16:09:41</t>
-  </si>
-  <si>
     <t>1: 1032</t>
   </si>
   <si>
     <t>1: 1034</t>
   </si>
   <si>
-    <t>8/28/18 16:09:44</t>
-  </si>
-  <si>
     <t>1: 1230</t>
   </si>
   <si>
@@ -538,7 +474,7 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>8/28/18 16:14:49</t>
+    <t>8/28/18 16:14:00</t>
   </si>
   <si>
     <t>1: 3233</t>
@@ -550,7 +486,7 @@
     <t>ampicillin</t>
   </si>
   <si>
-    <t>8/28/18 16:15:22</t>
+    <t>8/28/18 16:15:00</t>
   </si>
   <si>
     <t>1: 3248</t>
@@ -562,9 +498,6 @@
     <t>tetracycline</t>
   </si>
   <si>
-    <t>8/28/18 16:15:29</t>
-  </si>
-  <si>
     <t>1: 3363</t>
   </si>
   <si>
@@ -574,7 +507,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>8/28/18 16:38:25</t>
+    <t>8/28/18 16:38:00</t>
   </si>
   <si>
     <t>1: 3373</t>
@@ -586,9 +519,6 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>8/28/18 16:38:28</t>
-  </si>
-  <si>
     <t>1: 3385</t>
   </si>
   <si>
@@ -598,9 +528,6 @@
     <t>cefepime</t>
   </si>
   <si>
-    <t>8/28/18 16:38:31</t>
-  </si>
-  <si>
     <t>1: 3395</t>
   </si>
   <si>
@@ -610,9 +537,6 @@
     <t>cefoxitin</t>
   </si>
   <si>
-    <t>8/28/18 16:38:35</t>
-  </si>
-  <si>
     <t>1: 3406</t>
   </si>
   <si>
@@ -622,9 +546,6 @@
     <t>ceftazidime</t>
   </si>
   <si>
-    <t>8/28/18 16:38:38</t>
-  </si>
-  <si>
     <t>1: 3419</t>
   </si>
   <si>
@@ -634,9 +555,6 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>8/28/18 16:38:40</t>
-  </si>
-  <si>
     <t>1: 3432</t>
   </si>
   <si>
@@ -646,9 +564,6 @@
     <t>cefotaxime</t>
   </si>
   <si>
-    <t>8/28/18 16:38:45</t>
-  </si>
-  <si>
     <t>1: 3445</t>
   </si>
   <si>
@@ -658,9 +573,6 @@
     <t>ertapenem</t>
   </si>
   <si>
-    <t>8/28/18 16:38:48</t>
-  </si>
-  <si>
     <t>1: 3456</t>
   </si>
   <si>
@@ -670,7 +582,7 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>8/28/18 16:39:04</t>
+    <t>8/28/18 16:39:00</t>
   </si>
   <si>
     <t>1: 3472</t>
@@ -682,9 +594,6 @@
     <t>tobramycin</t>
   </si>
   <si>
-    <t>8/28/18 16:39:07</t>
-  </si>
-  <si>
     <t>1: 4994</t>
   </si>
   <si>
@@ -692,9 +601,6 @@
   </si>
   <si>
     <t>fully recovered</t>
-  </si>
-  <si>
-    <t>8/28/18 16:39:35</t>
   </si>
   <si>
     <t>20781</t>
@@ -712,13 +618,28 @@
 Austria</t>
   </si>
   <si>
-    <t>8/28/18 17:20:13</t>
+    <t>8/28/18 17:20:00</t>
+  </si>
+  <si>
+    <t>1: 2944</t>
+  </si>
+  <si>
+    <t>1: 2963</t>
+  </si>
+  <si>
+    <t>Aeromonas hydrophila</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>11/8/18 14:32:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,10 +789,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -894,7 +818,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -906,7 +830,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -923,9 +847,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -953,14 +877,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -988,6 +929,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1139,8 +1097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="4">
-        <v>1.5769450631763618E-2</v>
+        <v>1.5768999999999998E-2</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -1237,7 +1195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1269,13 +1227,13 @@
         <v>76</v>
       </c>
       <c r="K3" s="4">
-        <v>0.64735945485519586</v>
+        <v>0.64735900000000002</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1289,34 +1247,34 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="J4" s="3">
         <v>7</v>
       </c>
       <c r="K4" s="4">
-        <v>3.9729837107667858E-2</v>
+        <v>3.9730000000000001E-2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1330,34 +1288,34 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>2.2702764061524491E-2</v>
+        <v>2.2703000000000001E-2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1371,34 +1329,34 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
       </c>
       <c r="K6" s="4">
-        <v>1.1351382030762245E-2</v>
+        <v>1.1351E-2</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1412,34 +1370,34 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
       </c>
       <c r="K7" s="4">
-        <v>1.7027073046143367E-2</v>
+        <v>1.7027E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1453,34 +1411,34 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
       </c>
       <c r="K8" s="4">
-        <v>0.17027073046143368</v>
+        <v>0.17027100000000001</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1494,34 +1452,34 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J9" s="3">
         <v>6</v>
       </c>
       <c r="K9" s="4">
-        <v>3.4054146092286734E-2</v>
+        <v>3.4054000000000001E-2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1535,34 +1493,34 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
       </c>
       <c r="K10" s="4">
-        <v>2.8378455076905614E-2</v>
+        <v>2.8378E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1576,34 +1534,34 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J11" s="3">
         <v>7</v>
       </c>
       <c r="K11" s="4">
-        <v>3.9729837107667858E-2</v>
+        <v>3.9730000000000001E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1617,34 +1575,34 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3">
         <v>16</v>
       </c>
       <c r="K12" s="4">
-        <v>9.0811056246097963E-2</v>
+        <v>9.0811000000000003E-2</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1658,34 +1616,34 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3">
         <v>21</v>
       </c>
       <c r="K13" s="4">
-        <v>0.11918951132300357</v>
+        <v>0.11919</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1699,34 +1657,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J14" s="3">
         <v>9</v>
       </c>
       <c r="K14" s="4">
-        <v>5.1081219138430098E-2</v>
+        <v>5.1081000000000001E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1740,34 +1698,34 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J15" s="3">
         <v>2</v>
       </c>
       <c r="K15" s="4">
-        <v>1.3173494928204452E-2</v>
+        <v>1.3173000000000001E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1781,34 +1739,34 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
       </c>
       <c r="K16" s="4">
-        <v>1.9760242392306681E-2</v>
+        <v>1.976E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1822,34 +1780,34 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J17" s="3">
         <v>16</v>
       </c>
       <c r="K17" s="4">
-        <v>0.10538795942563561</v>
+        <v>0.105388</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1863,34 +1821,34 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J18" s="3">
         <v>16</v>
       </c>
       <c r="K18" s="4">
-        <v>0.10538795942563561</v>
+        <v>0.105388</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1904,34 +1862,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J19" s="3">
         <v>7</v>
       </c>
       <c r="K19" s="4">
-        <v>4.6107232248715581E-2</v>
+        <v>4.6107000000000002E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1945,34 +1903,34 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J20" s="3">
         <v>10</v>
       </c>
       <c r="K20" s="4">
-        <v>6.5867474641022258E-2</v>
+        <v>6.5866999999999995E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1986,34 +1944,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J21" s="3">
         <v>9</v>
       </c>
       <c r="K21" s="4">
-        <v>5.9280727176920033E-2</v>
+        <v>5.9281E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2027,34 +1985,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J22" s="3">
         <v>12</v>
       </c>
       <c r="K22" s="4">
-        <v>7.9040969569226724E-2</v>
+        <v>7.9041E-2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2068,34 +2026,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J23" s="3">
         <v>11</v>
       </c>
       <c r="K23" s="4">
-        <v>7.2454222105124491E-2</v>
+        <v>7.2454000000000005E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2109,37 +2067,37 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J24" s="3">
         <v>26</v>
       </c>
       <c r="K24" s="4">
-        <v>0.17125543406665789</v>
+        <v>0.17125499999999999</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -2150,34 +2108,34 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J25" s="3">
         <v>14</v>
       </c>
       <c r="K25" s="4">
-        <v>9.2214464497431162E-2</v>
+        <v>9.2214000000000004E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2191,34 +2149,34 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J26" s="3">
         <v>48</v>
       </c>
       <c r="K26" s="4">
-        <v>0.34664548277605256</v>
+        <v>0.34664499999999998</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2232,34 +2190,34 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
       <c r="K27" s="4">
-        <v>7.2217808911677617E-3</v>
+        <v>7.2220000000000001E-3</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2273,34 +2231,34 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J28" s="3">
         <v>5</v>
       </c>
       <c r="K28" s="4">
-        <v>2.6104207998329333E-2</v>
+        <v>2.6103999999999999E-2</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2314,34 +2272,34 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J29" s="3">
         <v>8</v>
       </c>
       <c r="K29" s="4">
-        <v>4.1766732797326928E-2</v>
+        <v>4.1766999999999999E-2</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2355,34 +2313,34 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="J30" s="3">
         <v>21</v>
       </c>
       <c r="K30" s="4">
-        <v>2.5550553595327898E-2</v>
+        <v>2.5551000000000001E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2396,34 +2354,34 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="J31" s="3">
         <v>7</v>
       </c>
       <c r="K31" s="4">
-        <v>5.8255659121171775E-2</v>
+        <v>5.8256000000000002E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2437,34 +2395,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="J32" s="3">
         <v>2</v>
       </c>
       <c r="K32" s="4">
-        <v>1.7711654268508677E-2</v>
+        <v>1.7711999999999999E-2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2478,34 +2436,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J33" s="3">
         <v>3</v>
       </c>
       <c r="K33" s="4">
-        <v>2.6567481402763018E-2</v>
+        <v>2.6567E-2</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2519,34 +2477,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="J34" s="3">
         <v>7</v>
       </c>
       <c r="K34" s="4">
-        <v>6.1990789939780376E-2</v>
+        <v>6.1990999999999997E-2</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2560,34 +2518,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J35" s="3">
         <v>10</v>
       </c>
       <c r="K35" s="4">
-        <v>8.855827134254339E-2</v>
+        <v>8.8557999999999998E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2601,34 +2559,34 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="J36" s="3">
         <v>12</v>
       </c>
       <c r="K36" s="4">
-        <v>0.10626992561105207</v>
+        <v>0.10627</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2642,34 +2600,34 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="J37" s="3">
         <v>8</v>
       </c>
       <c r="K37" s="4">
-        <v>7.084661707403471E-2</v>
+        <v>7.0846999999999993E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2683,34 +2641,34 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="J38" s="3">
         <v>9</v>
       </c>
       <c r="K38" s="4">
-        <v>7.970244420828905E-2</v>
+        <v>7.9701999999999995E-2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2724,34 +2682,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="J39" s="3">
         <v>8</v>
       </c>
       <c r="K39" s="4">
-        <v>7.084661707403471E-2</v>
+        <v>7.0846999999999993E-2</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2765,34 +2723,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J40" s="3">
         <v>9</v>
       </c>
       <c r="K40" s="4">
-        <v>7.970244420828905E-2</v>
+        <v>7.9701999999999995E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2806,34 +2764,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="J41" s="3">
         <v>11</v>
       </c>
       <c r="K41" s="4">
-        <v>9.7414098476797731E-2</v>
+        <v>9.7414000000000001E-2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2847,34 +2805,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="J42" s="3">
         <v>11</v>
       </c>
       <c r="K42" s="4">
-        <v>9.7414098476797731E-2</v>
+        <v>9.7414000000000001E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2888,34 +2846,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J43" s="3">
         <v>10</v>
       </c>
       <c r="K43" s="4">
-        <v>8.855827134254339E-2</v>
+        <v>8.8557999999999998E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2929,34 +2887,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="J44" s="3">
         <v>9</v>
       </c>
       <c r="K44" s="4">
-        <v>7.970244420828905E-2</v>
+        <v>7.9701999999999995E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2970,34 +2928,34 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="J45" s="3">
         <v>10</v>
       </c>
       <c r="K45" s="4">
-        <v>8.855827134254339E-2</v>
+        <v>8.8557999999999998E-2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3011,34 +2969,34 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="J46" s="3">
         <v>10</v>
       </c>
       <c r="K46" s="4">
-        <v>8.855827134254339E-2</v>
+        <v>8.8557999999999998E-2</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3052,37 +3010,37 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="J47" s="3">
         <v>15</v>
       </c>
       <c r="K47" s="4">
-        <v>0.13283740701381511</v>
+        <v>0.13283700000000001</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -3093,34 +3051,75 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="J48" s="3">
         <v>55</v>
       </c>
       <c r="K48" s="4">
-        <v>0.48668259446066725</v>
+        <v>0.48668299999999998</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>227</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0.177117</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
